--- a/Provvigioni_Agenti/bin/Debug/citta_regione/citta_barcella.xlsx
+++ b/Provvigioni_Agenti/bin/Debug/citta_regione/citta_barcella.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\source\repos\Provvigioni_Agenti\Provvigioni_Agenti\bin\Debug\citta_regione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D76C4DD-FFFB-4697-BCA0-9D605F54400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06B77FA-F9D3-4FAB-B439-0DC241372CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="0" activeTab="0" xr2:uid="{500AED77-5A11-4B8C-A0B0-F9EB8F99957D}"/>
+    <x:workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="0" activeTab="0" xr2:uid="{500AED77-5A11-4B8C-A0B0-F9EB8F99957D}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="comuni" sheetId="1" r:id="rId1"/>
@@ -162,6 +162,27 @@
   </x:si>
   <x:si>
     <x:t>Rovato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bergamo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cremona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monza Brianza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milano</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Novara</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Venezia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reggio Emilia</x:t>
   </x:si>
   <x:si>
     <x:t>VALLE D AOSTA</x:t>
@@ -277,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -423,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,10 +597,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B38"/>
+  <x:dimension ref="A1:B45"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <x:selection activeCell="B35" sqref="B35 B35:B38"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <x:selection activeCell="B45" sqref="B45"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,6 +911,62 @@
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -931,27 +1008,27 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -961,17 +1038,17 @@
     </x:row>
     <x:row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -981,12 +1058,12 @@
     </x:row>
     <x:row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -996,37 +1073,37 @@
     </x:row>
     <x:row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A18" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A19" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A20" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
